--- a/public/assets/data/ProductionData.xlsx
+++ b/public/assets/data/ProductionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\www\flock-sense\public\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD42815-739E-4151-9BF9-1ECA3E8D0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389A97D2-A2F0-4FB2-8398-BB2DD91BEAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
   <si>
     <t>production_log_date</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>NEO</t>
+  </si>
+  <si>
+    <t>todate_mortality_count</t>
+  </si>
+  <si>
+    <t>todate_feed_consume</t>
+  </si>
+  <si>
+    <t>todate_water_consumed</t>
   </si>
 </sst>
 </file>
@@ -519,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -531,15 +540,18 @@
     <col min="2" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="22.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="22.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,31 +568,40 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45807</v>
       </c>
@@ -597,32 +618,41 @@
         <v>12</v>
       </c>
       <c r="F2" s="1">
-        <v>100000</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1">
         <v>100000</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45808</v>
       </c>
@@ -639,32 +669,41 @@
         <v>12</v>
       </c>
       <c r="F3" s="1">
-        <v>150000</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1">
         <v>150000</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45809</v>
       </c>
@@ -681,32 +720,41 @@
         <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>200000</v>
+        <v>104</v>
       </c>
       <c r="G4" s="1">
         <v>200000</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45810</v>
       </c>
@@ -723,32 +771,41 @@
         <v>20</v>
       </c>
       <c r="F5" s="1">
+        <v>145</v>
+      </c>
+      <c r="G5" s="1">
         <v>300000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>250000</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1450000</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45811</v>
       </c>
@@ -765,32 +822,41 @@
         <v>16</v>
       </c>
       <c r="F6" s="1">
-        <v>350000</v>
+        <v>178</v>
       </c>
       <c r="G6" s="1">
         <v>350000</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>350000</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>2150000</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45812</v>
       </c>
@@ -807,32 +873,41 @@
         <v>13</v>
       </c>
       <c r="F7" s="1">
-        <v>400000</v>
+        <v>203</v>
       </c>
       <c r="G7" s="1">
         <v>400000</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>2950000</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45813</v>
       </c>
@@ -849,32 +924,41 @@
         <v>12</v>
       </c>
       <c r="F8" s="1">
+        <v>247</v>
+      </c>
+      <c r="G8" s="1">
         <v>450000</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>400000</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>3800000</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45814</v>
       </c>
@@ -891,32 +975,41 @@
         <v>12</v>
       </c>
       <c r="F9" s="1">
+        <v>271</v>
+      </c>
+      <c r="G9" s="1">
         <v>500000</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>450000</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>4750000</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45815</v>
       </c>
@@ -933,32 +1026,41 @@
         <v>12</v>
       </c>
       <c r="F10" s="1">
-        <v>550000</v>
+        <v>293</v>
       </c>
       <c r="G10" s="1">
         <v>550000</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>550000</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>5850000</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45816</v>
       </c>
@@ -975,32 +1077,41 @@
         <v>11</v>
       </c>
       <c r="F11" s="1">
+        <v>314</v>
+      </c>
+      <c r="G11" s="1">
         <v>600000</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>650000</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>7100000</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45817</v>
       </c>
@@ -1017,32 +1128,41 @@
         <v>9</v>
       </c>
       <c r="F12" s="1">
+        <v>333</v>
+      </c>
+      <c r="G12" s="1">
         <v>650000</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>700000</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>8450000</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45818</v>
       </c>
@@ -1059,32 +1179,41 @@
         <v>13</v>
       </c>
       <c r="F13" s="1">
-        <v>750000</v>
+        <v>355</v>
       </c>
       <c r="G13" s="1">
         <v>750000</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>9950000</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45819</v>
       </c>
@@ -1101,32 +1230,41 @@
         <v>11</v>
       </c>
       <c r="F14" s="1">
-        <v>800000</v>
+        <v>374</v>
       </c>
       <c r="G14" s="1">
         <v>800000</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>11550000</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45820</v>
       </c>
@@ -1137,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1146,17 +1284,26 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>11550000</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
       <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45821</v>
       </c>
@@ -1173,32 +1320,41 @@
         <v>8</v>
       </c>
       <c r="F16" s="1">
-        <v>900000</v>
+        <v>391</v>
       </c>
       <c r="G16" s="1">
         <v>900000</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>13350000</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45822</v>
       </c>
@@ -1215,32 +1371,41 @@
         <v>10</v>
       </c>
       <c r="F17" s="1">
-        <v>1000000</v>
+        <v>410</v>
       </c>
       <c r="G17" s="1">
         <v>1000000</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>15350000</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45823</v>
       </c>
@@ -1257,32 +1422,41 @@
         <v>10</v>
       </c>
       <c r="F18" s="1">
-        <v>1000000</v>
+        <v>430</v>
       </c>
       <c r="G18" s="1">
         <v>1000000</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>17350000</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45824</v>
       </c>
@@ -1299,32 +1473,41 @@
         <v>13</v>
       </c>
       <c r="F19" s="1">
-        <v>1050000</v>
+        <v>455</v>
       </c>
       <c r="G19" s="1">
         <v>1050000</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1050000</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>19450000</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45825</v>
       </c>
@@ -1341,32 +1524,41 @@
         <v>23</v>
       </c>
       <c r="F20" s="1">
-        <v>1050000</v>
+        <v>496</v>
       </c>
       <c r="G20" s="1">
         <v>1050000</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>1050000</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>21550000</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45826</v>
       </c>
@@ -1383,32 +1575,41 @@
         <v>33</v>
       </c>
       <c r="F21" s="1">
-        <v>1100000</v>
+        <v>559</v>
       </c>
       <c r="G21" s="1">
         <v>1100000</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>23750000</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45827</v>
       </c>
@@ -1425,32 +1626,41 @@
         <v>67</v>
       </c>
       <c r="F22" s="1">
-        <v>1150000</v>
+        <v>667</v>
       </c>
       <c r="G22" s="1">
         <v>1150000</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>1150000</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>26050000</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45828</v>
       </c>
@@ -1467,32 +1677,41 @@
         <v>83</v>
       </c>
       <c r="F23" s="1">
+        <v>821</v>
+      </c>
+      <c r="G23" s="1">
         <v>1150000</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>1200000</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>28400000</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45829</v>
       </c>
@@ -1509,32 +1728,41 @@
         <v>106</v>
       </c>
       <c r="F24" s="1">
-        <v>1150000</v>
+        <v>1031</v>
       </c>
       <c r="G24" s="1">
         <v>1150000</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>1150000</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>30700000</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45830</v>
       </c>
@@ -1551,32 +1779,41 @@
         <v>98</v>
       </c>
       <c r="F25" s="1">
-        <v>1200000</v>
+        <v>1234</v>
       </c>
       <c r="G25" s="1">
         <v>1200000</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>33100000</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45831</v>
       </c>
@@ -1593,32 +1830,41 @@
         <v>94</v>
       </c>
       <c r="F26" s="1">
-        <v>1250000</v>
+        <v>1436</v>
       </c>
       <c r="G26" s="1">
         <v>1250000</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>1250000</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>35600000</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="1">
-        <v>1</v>
-      </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45832</v>
       </c>
@@ -1629,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>1436</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1638,17 +1884,26 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>35600000</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
       </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
       <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45833</v>
       </c>
@@ -1665,32 +1920,41 @@
         <v>61</v>
       </c>
       <c r="F28" s="1">
+        <v>1564</v>
+      </c>
+      <c r="G28" s="1">
         <v>1400000</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>1350000</v>
       </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>38350000</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45834</v>
       </c>
@@ -1707,32 +1971,41 @@
         <v>53</v>
       </c>
       <c r="F29" s="1">
+        <v>1668</v>
+      </c>
+      <c r="G29" s="1">
         <v>1450000</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>1400000</v>
       </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>41200000</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45835</v>
       </c>
@@ -1749,32 +2022,41 @@
         <v>44</v>
       </c>
       <c r="F30" s="1">
-        <v>1450000</v>
+        <v>1759</v>
       </c>
       <c r="G30" s="1">
         <v>1450000</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>1450000</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>44100000</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45836</v>
       </c>
@@ -1791,32 +2073,41 @@
         <v>38</v>
       </c>
       <c r="F31" s="1">
-        <v>1500000</v>
+        <v>1838</v>
       </c>
       <c r="G31" s="1">
         <v>1500000</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>47100000</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="1">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45837</v>
       </c>
@@ -1833,32 +2124,41 @@
         <v>32</v>
       </c>
       <c r="F32" s="1">
-        <v>1550000</v>
+        <v>1905</v>
       </c>
       <c r="G32" s="1">
         <v>1550000</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>1550000</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>50200000</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M32" s="1">
-        <v>1</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45838</v>
       </c>
@@ -1875,32 +2175,41 @@
         <v>32</v>
       </c>
       <c r="F33" s="1">
-        <v>1600000</v>
+        <v>1968</v>
       </c>
       <c r="G33" s="1">
         <v>1600000</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>53400000</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M33" s="1">
-        <v>1</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45839</v>
       </c>
@@ -1917,32 +2226,41 @@
         <v>33</v>
       </c>
       <c r="F34" s="1">
-        <v>1650000</v>
+        <v>2033</v>
       </c>
       <c r="G34" s="1">
         <v>1650000</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>1650000</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>56700000</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M34" s="1">
-        <v>1</v>
-      </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45840</v>
       </c>
@@ -1959,32 +2277,41 @@
         <v>33</v>
       </c>
       <c r="F35" s="1">
-        <v>1700000</v>
+        <v>2099</v>
       </c>
       <c r="G35" s="1">
         <v>1700000</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>1700000</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>60100000</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45841</v>
       </c>
@@ -2001,32 +2328,41 @@
         <v>37</v>
       </c>
       <c r="F36" s="1">
+        <v>2168</v>
+      </c>
+      <c r="G36" s="1">
         <v>1700000</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>1650000</v>
       </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>63450000</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M36" s="1">
-        <v>1</v>
-      </c>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45842</v>
       </c>
@@ -2043,32 +2379,41 @@
         <v>22</v>
       </c>
       <c r="F37" s="1">
+        <v>2216</v>
+      </c>
+      <c r="G37" s="1">
         <v>1300000</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>1200000</v>
       </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>65950000</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M37" s="1">
-        <v>1</v>
-      </c>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45843</v>
       </c>
@@ -2085,32 +2430,41 @@
         <v>23</v>
       </c>
       <c r="F38" s="1">
-        <v>1250000</v>
+        <v>2262</v>
       </c>
       <c r="G38" s="1">
         <v>1250000</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>1250000</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>68450000</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>45844</v>
       </c>
@@ -2127,31 +2481,40 @@
         <v>23</v>
       </c>
       <c r="F39" s="1">
-        <v>1300000</v>
+        <v>2307</v>
       </c>
       <c r="G39" s="1">
         <v>1300000</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>71050000</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45845</v>
       </c>
@@ -2168,31 +2531,40 @@
         <v>19</v>
       </c>
       <c r="F40" s="1">
-        <v>1350000</v>
+        <v>2345</v>
       </c>
       <c r="G40" s="1">
         <v>1350000</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>1350000</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>73750000</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45846</v>
       </c>
@@ -2209,31 +2581,40 @@
         <v>19</v>
       </c>
       <c r="F41" s="1">
-        <v>1350000</v>
+        <v>2382</v>
       </c>
       <c r="G41" s="1">
         <v>1350000</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>1350000</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>76450000</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45847</v>
       </c>
@@ -2250,31 +2631,40 @@
         <v>18</v>
       </c>
       <c r="F42" s="1">
-        <v>1350000</v>
+        <v>2418</v>
       </c>
       <c r="G42" s="1">
         <v>1350000</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <v>1350000</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>79150000</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45848</v>
       </c>
@@ -2291,31 +2681,40 @@
         <v>18</v>
       </c>
       <c r="F43" s="1">
+        <v>2455</v>
+      </c>
+      <c r="G43" s="1">
         <v>1400000</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>1350000</v>
       </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>81900000</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45849</v>
       </c>
@@ -2332,31 +2731,40 @@
         <v>20</v>
       </c>
       <c r="F44" s="1">
-        <v>1350000</v>
+        <v>2493</v>
       </c>
       <c r="G44" s="1">
         <v>1350000</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>1350000</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>84600000</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
-      </c>
-      <c r="K44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="O44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45850</v>
       </c>
@@ -2373,28 +2781,37 @@
         <v>13</v>
       </c>
       <c r="F45" s="1">
-        <v>1100000</v>
+        <v>2524</v>
       </c>
       <c r="G45" s="1">
         <v>1100000</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>86800000</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
-      </c>
-      <c r="K45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45851</v>
       </c>
@@ -2411,28 +2828,37 @@
         <v>16</v>
       </c>
       <c r="F46" s="1">
+        <v>2557</v>
+      </c>
+      <c r="G46" s="1">
         <v>1150000</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>1100000</v>
       </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>89050000</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
-      </c>
-      <c r="K46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45852</v>
       </c>
@@ -2449,24 +2875,33 @@
         <v>17</v>
       </c>
       <c r="F47" s="1">
+        <v>2592</v>
+      </c>
+      <c r="G47" s="1">
         <v>1150000</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>1300000</v>
       </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>91500000</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
-      </c>
-      <c r="K47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="1">
+      <c r="P47" s="1">
         <v>1</v>
       </c>
     </row>
